--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_468__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_468__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5429,13 +5429,13 @@
                   <c:v>56.29490280151367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.86058807373047</c:v>
+                  <c:v>33.8605842590332</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>56.14724349975586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.25518798828125</c:v>
+                  <c:v>94.25520324707031</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.22444152832031</c:v>
@@ -5483,16 +5483,16 @@
                   <c:v>64.29199981689453</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.56705474853516</c:v>
+                  <c:v>59.56706619262695</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89.35765075683594</c:v>
+                  <c:v>89.357666015625</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.96418762207031</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94.69746398925781</c:v>
+                  <c:v>94.69747924804688</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>90.17691040039062</c:v>
@@ -5525,10 +5525,10 @@
                   <c:v>38.22425079345703</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.55398559570312</c:v>
+                  <c:v>89.55397033691406</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.31552124023438</c:v>
+                  <c:v>96.31550598144531</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>58.05137252807617</c:v>
@@ -5537,10 +5537,10 @@
                   <c:v>93.08058166503906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>38.84250259399414</c:v>
+                  <c:v>38.84250640869141</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.371337890625</c:v>
+                  <c:v>86.37132263183594</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>87.08718872070312</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>96.792724609375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.33499145507812</c:v>
+                  <c:v>97.33497619628906</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.95211791992188</c:v>
@@ -5573,13 +5573,13 @@
                   <c:v>96.97262573242188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75.97908020019531</c:v>
+                  <c:v>75.97909545898438</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>89.05448913574219</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.26736450195312</c:v>
+                  <c:v>56.26736068725586</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>95.2716064453125</c:v>
@@ -5606,10 +5606,10 @@
                   <c:v>96.89785766601562</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.299072265625</c:v>
+                  <c:v>97.29905700683594</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>87.38809204101562</c:v>
+                  <c:v>87.38807678222656</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>96.53695678710938</c:v>
@@ -5639,10 +5639,10 @@
                   <c:v>97.46884155273438</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.78106117248535</c:v>
+                  <c:v>28.78105926513672</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.84297943115234</c:v>
+                  <c:v>64.84297180175781</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>86.49505615234375</c:v>
@@ -5654,10 +5654,10 @@
                   <c:v>82.43133544921875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.17860412597656</c:v>
+                  <c:v>62.1786003112793</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>52.83091735839844</c:v>
+                  <c:v>52.83092498779297</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.15394592285156</c:v>
@@ -5669,10 +5669,10 @@
                   <c:v>85.04017639160156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.13112640380859</c:v>
+                  <c:v>60.13112258911133</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>91.37542724609375</c:v>
+                  <c:v>91.37544250488281</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.34858703613281</c:v>
@@ -5681,10 +5681,10 @@
                   <c:v>80.79893493652344</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>80.34036254882812</c:v>
+                  <c:v>80.34037780761719</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.82435607910156</c:v>
+                  <c:v>64.82436370849609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>33.86058807373047</v>
+        <v>33.8605842590332</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>94.25518798828125</v>
+        <v>94.25520324707031</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>59.56705474853516</v>
+        <v>59.56706619262695</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>89.35765075683594</v>
+        <v>89.357666015625</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>94.69746398925781</v>
+        <v>94.69747924804688</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.55398559570312</v>
+        <v>89.55397033691406</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.31552124023438</v>
+        <v>96.31550598144531</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>38.84250259399414</v>
+        <v>38.84250640869141</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.371337890625</v>
+        <v>86.37132263183594</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.33499145507812</v>
+        <v>97.33497619628906</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>75.0586</v>
       </c>
       <c r="F54">
-        <v>75.97908020019531</v>
+        <v>75.97909545898438</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>56.26736450195312</v>
+        <v>56.26736068725586</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.299072265625</v>
+        <v>97.29905700683594</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>89.3086</v>
       </c>
       <c r="F66">
-        <v>87.38809204101562</v>
+        <v>87.38807678222656</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>28.78106117248535</v>
+        <v>28.78105926513672</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.84297943115234</v>
+        <v>64.84297180175781</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>62.17860412597656</v>
+        <v>62.1786003112793</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>52.83091735839844</v>
+        <v>52.83092498779297</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>60.13112640380859</v>
+        <v>60.13112258911133</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>91.37542724609375</v>
+        <v>91.37544250488281</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>80.34036254882812</v>
+        <v>80.34037780761719</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>64.82435607910156</v>
+        <v>64.82436370849609</v>
       </c>
     </row>
     <row r="92" spans="1:6">
